--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I419"/>
+  <dimension ref="A1:I420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15245,6 +15245,43 @@
         <v>5600</v>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I420"/>
+  <dimension ref="A1:I421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15282,6 +15282,41 @@
         </is>
       </c>
     </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F421" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I421" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I421"/>
+  <dimension ref="A1:I422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15317,6 +15317,43 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I422"/>
+  <dimension ref="A1:I423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15354,6 +15354,41 @@
         </is>
       </c>
     </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I423" t="n">
+        <v>12300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I423"/>
+  <dimension ref="A1:I424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15389,6 +15389,41 @@
         <v>12300</v>
       </c>
     </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I424" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I424"/>
+  <dimension ref="A1:I425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15424,6 +15424,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I425"/>
+  <dimension ref="A1:I426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15461,6 +15461,41 @@
         </is>
       </c>
     </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I426" t="n">
+        <v>3600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I426"/>
+  <dimension ref="A1:I427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15496,6 +15496,41 @@
         <v>3600</v>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I427" t="n">
+        <v>1700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I427"/>
+  <dimension ref="A1:I428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15531,6 +15531,43 @@
         <v>1700</v>
       </c>
     </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:I429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15568,6 +15568,43 @@
         </is>
       </c>
     </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I429"/>
+  <dimension ref="A1:I430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15605,6 +15605,41 @@
         </is>
       </c>
     </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I430" t="n">
+        <v>132000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I430"/>
+  <dimension ref="A1:I432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15640,6 +15640,78 @@
         <v>132000</v>
       </c>
     </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I432" t="n">
+        <v>31000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I432"/>
+  <dimension ref="A1:I434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15712,6 +15712,78 @@
         <v>31000</v>
       </c>
     </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I434" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I434"/>
+  <dimension ref="A1:I435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15784,6 +15784,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I435"/>
+  <dimension ref="A1:I436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15821,6 +15821,43 @@
         </is>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I436"/>
+  <dimension ref="A1:I437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15858,6 +15858,43 @@
         </is>
       </c>
     </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I437"/>
+  <dimension ref="A1:I438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15895,6 +15895,43 @@
         </is>
       </c>
     </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I438"/>
+  <dimension ref="A1:I440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15932,6 +15932,78 @@
         </is>
       </c>
     </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I439" t="n">
+        <v>58600</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I440"/>
+  <dimension ref="A1:I441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16004,6 +16004,41 @@
         </is>
       </c>
     </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I441" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I441"/>
+  <dimension ref="A1:I442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16039,6 +16039,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I442" t="n">
+        <v>18300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I442"/>
+  <dimension ref="A1:I447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13496,11 +13496,11 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1574985600</v>
+        <v>1574294400</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -13514,28 +13514,28 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>0.325</v>
+        <v>0.33</v>
       </c>
       <c r="F371" t="n">
-        <v>0.325</v>
+        <v>0.33</v>
       </c>
       <c r="G371" t="n">
-        <v>0.325</v>
+        <v>0.33</v>
       </c>
       <c r="H371" t="n">
-        <v>0.325</v>
+        <v>0.33</v>
       </c>
       <c r="I371" t="n">
-        <v>6000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>1575244800</v>
+        <v>1574380800</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13549,28 +13549,28 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>0.325</v>
+        <v>0.33</v>
       </c>
       <c r="F372" t="n">
-        <v>0.335</v>
+        <v>0.33</v>
       </c>
       <c r="G372" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="H372" t="n">
-        <v>0.335</v>
+        <v>0.33</v>
       </c>
       <c r="I372" t="n">
-        <v>258000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>1575331200</v>
+        <v>1574640000</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13584,28 +13584,28 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>0.325</v>
+        <v>0.315</v>
       </c>
       <c r="F373" t="n">
-        <v>0.345</v>
+        <v>0.33</v>
       </c>
       <c r="G373" t="n">
-        <v>0.325</v>
+        <v>0.31</v>
       </c>
       <c r="H373" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="I373" t="n">
-        <v>109900</v>
+        <v>37300</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>1575417600</v>
+        <v>1574726400</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13619,28 +13619,28 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>0.335</v>
+        <v>0.325</v>
       </c>
       <c r="F374" t="n">
-        <v>0.345</v>
+        <v>0.325</v>
       </c>
       <c r="G374" t="n">
-        <v>0.33</v>
+        <v>0.325</v>
       </c>
       <c r="H374" t="n">
-        <v>0.34</v>
+        <v>0.325</v>
       </c>
       <c r="I374" t="n">
-        <v>196300</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1575504000</v>
+        <v>1574812800</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13654,28 +13654,28 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>0.345</v>
+        <v>0.335</v>
       </c>
       <c r="F375" t="n">
-        <v>0.345</v>
+        <v>0.335</v>
       </c>
       <c r="G375" t="n">
-        <v>0.32</v>
+        <v>0.335</v>
       </c>
       <c r="H375" t="n">
-        <v>0.32</v>
+        <v>0.335</v>
       </c>
       <c r="I375" t="n">
-        <v>100100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>1575590400</v>
+        <v>1574985600</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13689,28 +13689,28 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>0.345</v>
+        <v>0.325</v>
       </c>
       <c r="F376" t="n">
-        <v>0.35</v>
+        <v>0.325</v>
       </c>
       <c r="G376" t="n">
-        <v>0.34</v>
+        <v>0.325</v>
       </c>
       <c r="H376" t="n">
-        <v>0.35</v>
+        <v>0.325</v>
       </c>
       <c r="I376" t="n">
-        <v>116400</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1575849600</v>
+        <v>1575244800</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13724,28 +13724,28 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>0.355</v>
+        <v>0.325</v>
       </c>
       <c r="F377" t="n">
-        <v>0.36</v>
+        <v>0.335</v>
       </c>
       <c r="G377" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="H377" t="n">
-        <v>0.36</v>
+        <v>0.335</v>
       </c>
       <c r="I377" t="n">
-        <v>152800</v>
+        <v>258000</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>1575936000</v>
+        <v>1575331200</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13759,28 +13759,28 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>0.36</v>
+        <v>0.325</v>
       </c>
       <c r="F378" t="n">
-        <v>0.36</v>
+        <v>0.345</v>
       </c>
       <c r="G378" t="n">
-        <v>0.32</v>
+        <v>0.325</v>
       </c>
       <c r="H378" t="n">
         <v>0.34</v>
       </c>
       <c r="I378" t="n">
-        <v>102200</v>
+        <v>109900</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1576022400</v>
+        <v>1575417600</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13794,28 +13794,28 @@
         </is>
       </c>
       <c r="E379" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F379" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H379" t="n">
         <v>0.34</v>
       </c>
-      <c r="F379" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0.355</v>
-      </c>
       <c r="I379" t="n">
-        <v>40100</v>
+        <v>196300</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>1576108800</v>
+        <v>1575504000</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13829,28 +13829,28 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.32</v>
+        <v>0.345</v>
       </c>
       <c r="F380" t="n">
-        <v>0.33</v>
+        <v>0.345</v>
       </c>
       <c r="G380" t="n">
         <v>0.32</v>
       </c>
       <c r="H380" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="I380" t="n">
-        <v>7800</v>
+        <v>100100</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1576195200</v>
+        <v>1575590400</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13864,28 +13864,28 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>0.355</v>
+        <v>0.345</v>
       </c>
       <c r="F381" t="n">
-        <v>0.355</v>
+        <v>0.35</v>
       </c>
       <c r="G381" t="n">
-        <v>0.355</v>
+        <v>0.34</v>
       </c>
       <c r="H381" t="n">
-        <v>0.355</v>
+        <v>0.35</v>
       </c>
       <c r="I381" t="n">
-        <v>1000</v>
+        <v>116400</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1576454400</v>
+        <v>1575849600</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13899,28 +13899,28 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>0.33</v>
+        <v>0.355</v>
       </c>
       <c r="F382" t="n">
-        <v>0.355</v>
+        <v>0.36</v>
       </c>
       <c r="G382" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="H382" t="n">
-        <v>0.355</v>
+        <v>0.36</v>
       </c>
       <c r="I382" t="n">
-        <v>8500</v>
+        <v>152800</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1576540800</v>
+        <v>1575936000</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13934,30 +13934,28 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.355</v>
+        <v>0.36</v>
       </c>
       <c r="F383" t="n">
-        <v>0.355</v>
+        <v>0.36</v>
       </c>
       <c r="G383" t="n">
-        <v>0.355</v>
+        <v>0.32</v>
       </c>
       <c r="H383" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="I383" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.34</v>
+      </c>
+      <c r="I383" t="n">
+        <v>102200</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1576627200</v>
+        <v>1576022400</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13971,30 +13969,28 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>0.355</v>
+        <v>0.34</v>
       </c>
       <c r="F384" t="n">
-        <v>0.355</v>
+        <v>0.37</v>
       </c>
       <c r="G384" t="n">
-        <v>0.355</v>
+        <v>0.34</v>
       </c>
       <c r="H384" t="n">
         <v>0.355</v>
       </c>
-      <c r="I384" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I384" t="n">
+        <v>40100</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1576713600</v>
+        <v>1576108800</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -14011,7 +14007,7 @@
         <v>0.32</v>
       </c>
       <c r="F385" t="n">
-        <v>0.355</v>
+        <v>0.33</v>
       </c>
       <c r="G385" t="n">
         <v>0.32</v>
@@ -14020,16 +14016,16 @@
         <v>0.33</v>
       </c>
       <c r="I385" t="n">
-        <v>78400</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>1576800000</v>
+        <v>1576195200</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -14055,16 +14051,16 @@
         <v>0.355</v>
       </c>
       <c r="I386" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1577059200</v>
+        <v>1576454400</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -14078,28 +14074,28 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="F387" t="n">
-        <v>0.32</v>
+        <v>0.355</v>
       </c>
       <c r="G387" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="H387" t="n">
-        <v>0.32</v>
+        <v>0.355</v>
       </c>
       <c r="I387" t="n">
-        <v>2200</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>1577145600</v>
+        <v>1576540800</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -14113,28 +14109,30 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.32</v>
+        <v>0.355</v>
       </c>
       <c r="F388" t="n">
-        <v>0.33</v>
+        <v>0.355</v>
       </c>
       <c r="G388" t="n">
-        <v>0.31</v>
+        <v>0.355</v>
       </c>
       <c r="H388" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I388" t="n">
-        <v>31100</v>
+        <v>0.355</v>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1577318400</v>
+        <v>1576627200</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -14148,28 +14146,30 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>0.33</v>
+        <v>0.355</v>
       </c>
       <c r="F389" t="n">
-        <v>0.33</v>
+        <v>0.355</v>
       </c>
       <c r="G389" t="n">
-        <v>0.33</v>
+        <v>0.355</v>
       </c>
       <c r="H389" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="I389" t="n">
-        <v>1000</v>
+        <v>0.355</v>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>1577404800</v>
+        <v>1576713600</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -14183,28 +14183,28 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="F390" t="n">
-        <v>0.34</v>
+        <v>0.355</v>
       </c>
       <c r="G390" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="H390" t="n">
         <v>0.33</v>
       </c>
       <c r="I390" t="n">
-        <v>3000</v>
+        <v>78400</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1577664000</v>
+        <v>1576800000</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -14218,30 +14218,28 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>0.33</v>
+        <v>0.355</v>
       </c>
       <c r="F391" t="n">
-        <v>0.33</v>
+        <v>0.355</v>
       </c>
       <c r="G391" t="n">
-        <v>0.33</v>
+        <v>0.355</v>
       </c>
       <c r="H391" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="I391" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.355</v>
+      </c>
+      <c r="I391" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>1577750400</v>
+        <v>1577059200</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -14255,28 +14253,28 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>0.335</v>
+        <v>0.32</v>
       </c>
       <c r="F392" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="G392" t="n">
-        <v>0.335</v>
+        <v>0.32</v>
       </c>
       <c r="H392" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="I392" t="n">
-        <v>114300</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>1577923200</v>
+        <v>1577145600</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -14290,30 +14288,28 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="F393" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="G393" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="H393" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I393" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.31</v>
+      </c>
+      <c r="I393" t="n">
+        <v>31100</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>1578009600</v>
+        <v>1577318400</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -14327,30 +14323,28 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F394" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="G394" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="H394" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I394" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.33</v>
+      </c>
+      <c r="I394" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1578268800</v>
+        <v>1577404800</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -14364,28 +14358,28 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="F395" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="G395" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="H395" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="I395" t="n">
-        <v>88200</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>1578355200</v>
+        <v>1577664000</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -14399,28 +14393,30 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="F396" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="G396" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="H396" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="I396" t="n">
-        <v>3000</v>
+        <v>0.33</v>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>1578441600</v>
+        <v>1577750400</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -14434,30 +14430,28 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>0.32</v>
+        <v>0.335</v>
       </c>
       <c r="F397" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="G397" t="n">
-        <v>0.32</v>
+        <v>0.335</v>
       </c>
       <c r="H397" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="I397" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.35</v>
+      </c>
+      <c r="I397" t="n">
+        <v>114300</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>1578528000</v>
+        <v>1577923200</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -14471,16 +14465,16 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="F398" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="G398" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="H398" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="I398" t="inlineStr">
         <is>
@@ -14490,11 +14484,11 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>1578614400</v>
+        <v>1578009600</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -14508,16 +14502,16 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="F399" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="G399" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="H399" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="I399" t="inlineStr">
         <is>
@@ -14527,11 +14521,11 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>1578873600</v>
+        <v>1578268800</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -14545,28 +14539,28 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>0.325</v>
+        <v>0.35</v>
       </c>
       <c r="F400" t="n">
-        <v>0.345</v>
+        <v>0.37</v>
       </c>
       <c r="G400" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="H400" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="I400" t="n">
-        <v>15800</v>
+        <v>88200</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1578960000</v>
+        <v>1578355200</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14580,30 +14574,28 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="F401" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="G401" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="H401" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="I401" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.32</v>
+      </c>
+      <c r="I401" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1579046400</v>
+        <v>1578441600</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14617,28 +14609,30 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="F402" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="G402" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="H402" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I402" t="n">
-        <v>200</v>
+        <v>0.32</v>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>1579132800</v>
+        <v>1578528000</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14652,28 +14646,30 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>0.345</v>
+        <v>0.32</v>
       </c>
       <c r="F403" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="G403" t="n">
-        <v>0.345</v>
+        <v>0.32</v>
       </c>
       <c r="H403" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I403" t="n">
-        <v>32000</v>
+        <v>0.32</v>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>1579219200</v>
+        <v>1578614400</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14687,16 +14683,16 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="F404" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="G404" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="H404" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="I404" t="inlineStr">
         <is>
@@ -14706,11 +14702,11 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>1579478400</v>
+        <v>1578873600</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14724,30 +14720,28 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>0.35</v>
+        <v>0.325</v>
       </c>
       <c r="F405" t="n">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="G405" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="H405" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I405" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.34</v>
+      </c>
+      <c r="I405" t="n">
+        <v>15800</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>1579564800</v>
+        <v>1578960000</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14761,28 +14755,30 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="F406" t="n">
         <v>0.34</v>
       </c>
       <c r="G406" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="H406" t="n">
         <v>0.34</v>
       </c>
-      <c r="I406" t="n">
-        <v>45000</v>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>1579651200</v>
+        <v>1579046400</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14796,28 +14792,28 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>0.345</v>
+        <v>0.35</v>
       </c>
       <c r="F407" t="n">
-        <v>0.345</v>
+        <v>0.35</v>
       </c>
       <c r="G407" t="n">
-        <v>0.345</v>
+        <v>0.35</v>
       </c>
       <c r="H407" t="n">
-        <v>0.345</v>
+        <v>0.35</v>
       </c>
       <c r="I407" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>1579737600</v>
+        <v>1579132800</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14831,28 +14827,28 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>0.32</v>
+        <v>0.345</v>
       </c>
       <c r="F408" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="G408" t="n">
-        <v>0.32</v>
+        <v>0.345</v>
       </c>
       <c r="H408" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="I408" t="n">
-        <v>2000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>1579824000</v>
+        <v>1579219200</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14866,28 +14862,30 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="F409" t="n">
         <v>0.35</v>
       </c>
       <c r="G409" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="H409" t="n">
         <v>0.35</v>
       </c>
-      <c r="I409" t="n">
-        <v>32200</v>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>1580169600</v>
+        <v>1579478400</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14920,11 +14918,11 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>1580256000</v>
+        <v>1579564800</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14938,30 +14936,28 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F411" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="G411" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="H411" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I411" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.34</v>
+      </c>
+      <c r="I411" t="n">
+        <v>45000</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>1580342400</v>
+        <v>1579651200</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -14975,30 +14971,28 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="F412" t="n">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="G412" t="n">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="H412" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I412" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.345</v>
+      </c>
+      <c r="I412" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>1580428800</v>
+        <v>1579737600</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -15015,25 +15009,25 @@
         <v>0.32</v>
       </c>
       <c r="F413" t="n">
-        <v>0.335</v>
+        <v>0.34</v>
       </c>
       <c r="G413" t="n">
-        <v>0.305</v>
+        <v>0.32</v>
       </c>
       <c r="H413" t="n">
-        <v>0.335</v>
+        <v>0.32</v>
       </c>
       <c r="I413" t="n">
-        <v>25600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>1580688000</v>
+        <v>1579824000</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -15047,28 +15041,28 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>0.295</v>
+        <v>0.32</v>
       </c>
       <c r="F414" t="n">
-        <v>0.335</v>
+        <v>0.35</v>
       </c>
       <c r="G414" t="n">
-        <v>0.295</v>
+        <v>0.32</v>
       </c>
       <c r="H414" t="n">
-        <v>0.335</v>
+        <v>0.35</v>
       </c>
       <c r="I414" t="n">
-        <v>21100</v>
+        <v>32200</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>1580774400</v>
+        <v>1580169600</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -15082,16 +15076,16 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>0.335</v>
+        <v>0.35</v>
       </c>
       <c r="F415" t="n">
-        <v>0.335</v>
+        <v>0.35</v>
       </c>
       <c r="G415" t="n">
-        <v>0.335</v>
+        <v>0.35</v>
       </c>
       <c r="H415" t="n">
-        <v>0.335</v>
+        <v>0.35</v>
       </c>
       <c r="I415" t="inlineStr">
         <is>
@@ -15101,11 +15095,11 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>1580860800</v>
+        <v>1580256000</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -15119,16 +15113,16 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>0.335</v>
+        <v>0.35</v>
       </c>
       <c r="F416" t="n">
-        <v>0.335</v>
+        <v>0.35</v>
       </c>
       <c r="G416" t="n">
-        <v>0.335</v>
+        <v>0.35</v>
       </c>
       <c r="H416" t="n">
-        <v>0.335</v>
+        <v>0.35</v>
       </c>
       <c r="I416" t="inlineStr">
         <is>
@@ -15138,11 +15132,11 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>1580947200</v>
+        <v>1580342400</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -15156,16 +15150,16 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>0.335</v>
+        <v>0.35</v>
       </c>
       <c r="F417" t="n">
-        <v>0.335</v>
+        <v>0.35</v>
       </c>
       <c r="G417" t="n">
-        <v>0.335</v>
+        <v>0.35</v>
       </c>
       <c r="H417" t="n">
-        <v>0.335</v>
+        <v>0.35</v>
       </c>
       <c r="I417" t="inlineStr">
         <is>
@@ -15175,11 +15169,11 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1581033600</v>
+        <v>1580428800</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -15193,30 +15187,28 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>0.335</v>
+        <v>0.32</v>
       </c>
       <c r="F418" t="n">
         <v>0.335</v>
       </c>
       <c r="G418" t="n">
-        <v>0.335</v>
+        <v>0.305</v>
       </c>
       <c r="H418" t="n">
         <v>0.335</v>
       </c>
-      <c r="I418" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I418" t="n">
+        <v>25600</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1581292800</v>
+        <v>1580688000</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -15242,16 +15234,16 @@
         <v>0.335</v>
       </c>
       <c r="I419" t="n">
-        <v>5600</v>
+        <v>21100</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>1581379200</v>
+        <v>1580774400</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -15284,11 +15276,11 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>1581465600</v>
+        <v>1580860800</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -15302,28 +15294,30 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="F421" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="G421" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="H421" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="I421" t="n">
-        <v>30000</v>
+        <v>0.335</v>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>1581552000</v>
+        <v>1580947200</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -15337,16 +15331,16 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="F422" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="G422" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="H422" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="I422" t="inlineStr">
         <is>
@@ -15356,11 +15350,11 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>1581638400</v>
+        <v>1581033600</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -15374,28 +15368,30 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="F423" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="G423" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="H423" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="I423" t="n">
-        <v>12300</v>
+        <v>0.335</v>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>1581897600</v>
+        <v>1581292800</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -15409,28 +15405,28 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.305</v>
+        <v>0.295</v>
       </c>
       <c r="F424" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="G424" t="n">
-        <v>0.305</v>
+        <v>0.295</v>
       </c>
       <c r="H424" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="I424" t="n">
-        <v>1000</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>1582070400</v>
+        <v>1581379200</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -15444,16 +15440,16 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="F425" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="G425" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="H425" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="I425" t="inlineStr">
         <is>
@@ -15463,11 +15459,11 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>1582156800</v>
+        <v>1581465600</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -15481,28 +15477,28 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>0.31</v>
+        <v>0.305</v>
       </c>
       <c r="F426" t="n">
-        <v>0.32</v>
+        <v>0.305</v>
       </c>
       <c r="G426" t="n">
-        <v>0.31</v>
+        <v>0.305</v>
       </c>
       <c r="H426" t="n">
-        <v>0.32</v>
+        <v>0.305</v>
       </c>
       <c r="I426" t="n">
-        <v>3600</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>1582243200</v>
+        <v>1581552000</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -15516,28 +15512,30 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>0.32</v>
+        <v>0.305</v>
       </c>
       <c r="F427" t="n">
-        <v>0.32</v>
+        <v>0.305</v>
       </c>
       <c r="G427" t="n">
-        <v>0.32</v>
+        <v>0.305</v>
       </c>
       <c r="H427" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="I427" t="n">
-        <v>1700</v>
+        <v>0.305</v>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>1582502400</v>
+        <v>1581638400</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -15551,30 +15549,28 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>0.32</v>
+        <v>0.305</v>
       </c>
       <c r="F428" t="n">
-        <v>0.32</v>
+        <v>0.305</v>
       </c>
       <c r="G428" t="n">
-        <v>0.32</v>
+        <v>0.305</v>
       </c>
       <c r="H428" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="I428" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.305</v>
+      </c>
+      <c r="I428" t="n">
+        <v>12300</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1582588800</v>
+        <v>1581897600</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -15588,30 +15584,28 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>0.32</v>
+        <v>0.305</v>
       </c>
       <c r="F429" t="n">
-        <v>0.32</v>
+        <v>0.305</v>
       </c>
       <c r="G429" t="n">
-        <v>0.32</v>
+        <v>0.305</v>
       </c>
       <c r="H429" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="I429" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.305</v>
+      </c>
+      <c r="I429" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>1582675200</v>
+        <v>1582070400</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -15625,28 +15619,30 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.3</v>
+        <v>0.305</v>
       </c>
       <c r="F430" t="n">
-        <v>0.3</v>
+        <v>0.305</v>
       </c>
       <c r="G430" t="n">
-        <v>0.29</v>
+        <v>0.305</v>
       </c>
       <c r="H430" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="I430" t="n">
-        <v>132000</v>
+        <v>0.305</v>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>1582761600</v>
+        <v>1582156800</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15660,30 +15656,28 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="F431" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="G431" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="H431" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="I431" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.32</v>
+      </c>
+      <c r="I431" t="n">
+        <v>3600</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>1582848000</v>
+        <v>1582243200</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15697,28 +15691,28 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="F432" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="G432" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="H432" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="I432" t="n">
-        <v>31000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>1583107200</v>
+        <v>1582502400</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15732,16 +15726,16 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="F433" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="G433" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="H433" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="I433" t="inlineStr">
         <is>
@@ -15751,11 +15745,11 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>1583193600</v>
+        <v>1582588800</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15769,28 +15763,30 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="F434" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="G434" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="H434" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I434" t="n">
-        <v>2000</v>
+        <v>0.32</v>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1583280000</v>
+        <v>1582675200</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15804,30 +15800,28 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="F435" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G435" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="H435" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I435" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.29</v>
+      </c>
+      <c r="I435" t="n">
+        <v>132000</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>1583366400</v>
+        <v>1582761600</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15841,16 +15835,16 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="F436" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="G436" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="H436" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="I436" t="inlineStr">
         <is>
@@ -15860,11 +15854,11 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1583452800</v>
+        <v>1582848000</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15878,30 +15872,28 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="F437" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="G437" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="H437" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I437" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.29</v>
+      </c>
+      <c r="I437" t="n">
+        <v>31000</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>1583712000</v>
+        <v>1583107200</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15915,16 +15907,16 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="F438" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="G438" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="H438" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="I438" t="inlineStr">
         <is>
@@ -15934,11 +15926,11 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1583798400</v>
+        <v>1583193600</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-03-03</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15952,28 +15944,28 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>0.295</v>
+        <v>0.31</v>
       </c>
       <c r="F439" t="n">
-        <v>0.295</v>
+        <v>0.31</v>
       </c>
       <c r="G439" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="H439" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="I439" t="n">
-        <v>58600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>1583884800</v>
+        <v>1583280000</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15987,16 +15979,16 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="F440" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="G440" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="H440" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="I440" t="inlineStr">
         <is>
@@ -16006,11 +15998,11 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1583971200</v>
+        <v>1583366400</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -16024,53 +16016,236 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="F441" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="G441" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="H441" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I441" t="n">
-        <v>20000</v>
+        <v>0.31</v>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F443" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E444" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I444" t="n">
+        <v>58600</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E445" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F445" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E446" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F446" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I446" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B442" t="inlineStr">
+      <c r="B447" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>0199</t>
-        </is>
-      </c>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>TRIMODE</t>
-        </is>
-      </c>
-      <c r="E442" t="n">
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E447" t="n">
         <v>0.245</v>
       </c>
-      <c r="F442" t="n">
+      <c r="F447" t="n">
         <v>0.245</v>
       </c>
-      <c r="G442" t="n">
+      <c r="G447" t="n">
         <v>0.21</v>
       </c>
-      <c r="H442" t="n">
+      <c r="H447" t="n">
         <v>0.245</v>
       </c>
-      <c r="I442" t="n">
+      <c r="I447" t="n">
         <v>18300</v>
       </c>
     </row>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I447"/>
+  <dimension ref="A1:I448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16249,6 +16249,43 @@
         <v>18300</v>
       </c>
     </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E448" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F448" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I448"/>
+  <dimension ref="A1:I449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16286,6 +16286,43 @@
         </is>
       </c>
     </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E449" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F449" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I449"/>
+  <dimension ref="A1:I450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16323,6 +16323,41 @@
         </is>
       </c>
     </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E450" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F450" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I450" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I450"/>
+  <dimension ref="A1:I451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16358,6 +16358,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E451" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F451" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I451" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I451"/>
+  <dimension ref="A1:I452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16393,6 +16393,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E452" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F452" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I452" t="n">
+        <v>36200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I452"/>
+  <dimension ref="A1:I453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16428,6 +16428,41 @@
         <v>36200</v>
       </c>
     </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E453" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F453" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I453" t="n">
+        <v>7200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I453"/>
+  <dimension ref="A1:I454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16463,6 +16463,41 @@
         <v>7200</v>
       </c>
     </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E454" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F454" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I454" t="n">
+        <v>22600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I454"/>
+  <dimension ref="A1:I455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16498,6 +16498,41 @@
         <v>22600</v>
       </c>
     </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E455" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F455" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I455" t="n">
+        <v>131400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I455"/>
+  <dimension ref="A1:I456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16533,6 +16533,41 @@
         <v>131400</v>
       </c>
     </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E456" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F456" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I456" t="n">
+        <v>8800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I456"/>
+  <dimension ref="A1:I457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16568,6 +16568,41 @@
         <v>8800</v>
       </c>
     </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E457" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F457" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I457" t="n">
+        <v>73100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I457"/>
+  <dimension ref="A1:I458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16603,6 +16603,41 @@
         <v>73100</v>
       </c>
     </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E458" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F458" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I458" t="n">
+        <v>20100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I458"/>
+  <dimension ref="A1:I459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16638,6 +16638,43 @@
         <v>20100</v>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E459" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F459" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I459"/>
+  <dimension ref="A1:I460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16675,6 +16675,43 @@
         </is>
       </c>
     </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E460" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F460" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I460"/>
+  <dimension ref="A1:I461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16712,6 +16712,43 @@
         </is>
       </c>
     </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E461" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I461"/>
+  <dimension ref="A1:I462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16749,6 +16749,41 @@
         </is>
       </c>
     </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E462" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F462" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I462" t="n">
+        <v>30900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I462"/>
+  <dimension ref="A1:I463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16784,6 +16784,41 @@
         <v>30900</v>
       </c>
     </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E463" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F463" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I463" t="n">
+        <v>61200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I463"/>
+  <dimension ref="A1:I464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16819,6 +16819,41 @@
         <v>61200</v>
       </c>
     </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E464" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F464" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I464" t="n">
+        <v>62900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I464"/>
+  <dimension ref="A1:I465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16854,6 +16854,41 @@
         <v>62900</v>
       </c>
     </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E465" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F465" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G465" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I465" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I465"/>
+  <dimension ref="A1:I466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16889,6 +16889,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E466" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G466" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I466" t="n">
+        <v>45400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I466"/>
+  <dimension ref="A1:I467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16924,6 +16924,43 @@
         <v>45400</v>
       </c>
     </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E467" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F467" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I467"/>
+  <dimension ref="A1:I468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16961,6 +16961,43 @@
         </is>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E468" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I468"/>
+  <dimension ref="A1:I469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16998,6 +16998,41 @@
         </is>
       </c>
     </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E469" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F469" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G469" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I469" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I469"/>
+  <dimension ref="A1:I470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17033,6 +17033,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E470" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F470" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G470" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I470" t="n">
+        <v>185700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I470"/>
+  <dimension ref="A1:I471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17068,6 +17068,41 @@
         <v>185700</v>
       </c>
     </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E471" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F471" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G471" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I471" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I471"/>
+  <dimension ref="A1:I472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17103,6 +17103,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E472" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F472" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G472" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I472" t="n">
+        <v>5500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I472"/>
+  <dimension ref="A1:I474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17138,6 +17138,78 @@
         <v>5500</v>
       </c>
     </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E473" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F473" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G473" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I473" t="n">
+        <v>48700</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E474" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G474" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I474"/>
+  <dimension ref="A1:I475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17210,6 +17210,43 @@
         </is>
       </c>
     </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E475" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F475" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G475" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I475"/>
+  <dimension ref="A1:I478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17247,6 +17247,113 @@
         </is>
       </c>
     </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E476" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F476" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I476" t="n">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E477" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F477" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G477" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E478" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G478" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I478" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I478"/>
+  <dimension ref="A1:I479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17354,6 +17354,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E479" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G479" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I479"/>
+  <dimension ref="A1:I480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17391,6 +17391,43 @@
         </is>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E480" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F480" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G480" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0199.xlsx
+++ b/data/0199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I480"/>
+  <dimension ref="A1:I483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17428,6 +17428,113 @@
         </is>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E481" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F481" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I481" t="n">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E482" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F482" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G482" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I482" t="n">
+        <v>65700</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>0199</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>TRIMODE</t>
+        </is>
+      </c>
+      <c r="E483" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F483" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G483" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
